--- a/docs/odh/shr-core-Address-model.xlsx
+++ b/docs/odh/shr-core-Address-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="69">
   <si>
     <t>Path</t>
   </si>
@@ -147,7 +147,7 @@
 </t>
   </si>
   <si>
-    <t>What it should be used for.</t>
+    <t>Description of the intent or use of the item.</t>
   </si>
   <si>
     <t>required</t>
@@ -179,10 +179,6 @@
     <t>A string meant for reading by a person, for example, accompanying a code.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1548311
-</t>
-  </si>
-  <si>
     <t>shr-core-Address-model.addressLine</t>
   </si>
   <si>
@@ -195,54 +191,34 @@
     <t>The name of a municipality, city, town, village or other community or delivery center. (Source: HL7 FHIR).</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1555315
-</t>
-  </si>
-  <si>
     <t>shr-core-Address-model.district</t>
   </si>
   <si>
     <t>The name of the administrative area at a level below that of a state but above that of a city or town. In the US, a county. Outside the US, a district or the equivalent. (Source: HL7 FHIR).</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0079170
-</t>
-  </si>
-  <si>
     <t>shr-core-Address-model.state</t>
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes). (Source: HL7 FHIR).</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1552743
-</t>
-  </si>
-  <si>
     <t>shr-core-Address-model.postalCode</t>
   </si>
   <si>
     <t>A sequence of letters and digits used as part of a postal address, often designating a geographic region</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1514254
-</t>
-  </si>
-  <si>
     <t>shr-core-Address-model.country</t>
   </si>
   <si>
     <t>Country - a nation as commonly understood or generally accepted, expressed in ISO 3166 Alpha-2 (2-letter) codes.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0454664
-</t>
-  </si>
-  <si>
     <t>shr-core-Address-model.effectiveTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -399,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -904,7 +880,7 @@
         <v>36</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -936,7 +912,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -962,10 +938,10 @@
         <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1016,7 +992,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1033,7 +1009,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1059,10 +1035,10 @@
         <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1098,7 +1074,7 @@
         <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>36</v>
@@ -1113,7 +1089,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1130,7 +1106,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1156,10 +1132,10 @@
         <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1195,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>36</v>
@@ -1210,7 +1186,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1227,7 +1203,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1253,10 +1229,10 @@
         <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1292,7 +1268,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1307,7 +1283,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1324,7 +1300,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1350,10 +1326,10 @@
         <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1389,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1404,7 +1380,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1421,7 +1397,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1447,10 +1423,10 @@
         <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1486,7 +1462,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1501,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1518,7 +1494,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1541,13 +1517,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1583,7 +1559,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1598,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
